--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>r0</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Height</t>
   </si>
   <si>
-    <t>ogWidth</t>
-  </si>
-  <si>
     <t>r6</t>
   </si>
   <si>
@@ -83,13 +80,67 @@
     <t>r12</t>
   </si>
   <si>
-    <t>window</t>
-  </si>
-  <si>
     <t>loopX</t>
   </si>
   <si>
     <t>loopY</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>og Width</t>
+  </si>
+  <si>
+    <t>imagedataSave</t>
+  </si>
+  <si>
+    <t>imagepixelIndex</t>
+  </si>
+  <si>
+    <t>rValue</t>
+  </si>
+  <si>
+    <t>bValue</t>
+  </si>
+  <si>
+    <t>gValue</t>
+  </si>
+  <si>
+    <t>calc Index 1</t>
+  </si>
+  <si>
+    <t>calc Index 2</t>
   </si>
 </sst>
 </file>
@@ -441,13 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090BCA7-DA4C-4993-ADE1-700C25FC9332}">
-  <dimension ref="A3:B15"/>
+  <dimension ref="A3:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="17.62890625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
@@ -462,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -470,7 +524,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -478,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -486,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -494,51 +548,124 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>r0</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>calc Index 2</t>
+  </si>
+  <si>
+    <t>imageDataStart</t>
+  </si>
+  <si>
+    <t>immediate Value</t>
   </si>
 </sst>
 </file>
@@ -494,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090BCA7-DA4C-4993-ADE1-700C25FC9332}">
   <dimension ref="A3:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -555,26 +561,41 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>13</v>
       </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>14</v>
       </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>15</v>
       </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -661,6 +682,9 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>r0</t>
   </si>
@@ -116,15 +116,9 @@
     <t>s9</t>
   </si>
   <si>
-    <t>s10</t>
-  </si>
-  <si>
     <t>og Width</t>
   </si>
   <si>
-    <t>imagedataSave</t>
-  </si>
-  <si>
     <t>imagepixelIndex</t>
   </si>
   <si>
@@ -143,10 +137,67 @@
     <t>calc Index 2</t>
   </si>
   <si>
-    <t>imageDataStart</t>
-  </si>
-  <si>
     <t>immediate Value</t>
+  </si>
+  <si>
+    <t>nextFree</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>WINDOW</t>
+  </si>
+  <si>
+    <t>ZOOM</t>
+  </si>
+  <si>
+    <t>zoomFactor</t>
+  </si>
+  <si>
+    <t>newImage</t>
+  </si>
+  <si>
+    <t>pixelLoopX</t>
+  </si>
+  <si>
+    <t>pixelLoopY</t>
+  </si>
+  <si>
+    <t>windHeight</t>
+  </si>
+  <si>
+    <t>windWidth</t>
+  </si>
+  <si>
+    <t>Calc 1</t>
+  </si>
+  <si>
+    <t>Calc 2</t>
+  </si>
+  <si>
+    <t>PixelIndex</t>
+  </si>
+  <si>
+    <t>Calculation 1</t>
+  </si>
+  <si>
+    <t>Calculation 2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>Calc3</t>
+  </si>
+  <si>
+    <t>dataIndex</t>
+  </si>
+  <si>
+    <t>color Value</t>
+  </si>
+  <si>
+    <t>next Write</t>
   </si>
 </sst>
 </file>
@@ -162,12 +213,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,8 +245,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -498,117 +563,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090BCA7-DA4C-4993-ADE1-700C25FC9332}">
-  <dimension ref="A3:B29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="4.734375" customWidth="1"/>
     <col min="2" max="2" width="17.62890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
@@ -616,7 +747,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
@@ -624,7 +755,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
@@ -632,7 +763,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
@@ -640,15 +771,15 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
@@ -656,7 +787,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
@@ -664,32 +795,27 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>r0</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Calc 2</t>
   </si>
   <si>
-    <t>PixelIndex</t>
-  </si>
-  <si>
     <t>Calculation 1</t>
   </si>
   <si>
@@ -191,13 +188,13 @@
     <t>Calc3</t>
   </si>
   <si>
-    <t>dataIndex</t>
-  </si>
-  <si>
     <t>color Value</t>
   </si>
   <si>
-    <t>next Write</t>
+    <t>new Index</t>
+  </si>
+  <si>
+    <t>old Index</t>
   </si>
 </sst>
 </file>
@@ -566,7 +563,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -583,10 +580,10 @@
         <v>41</v>
       </c>
       <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -674,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
@@ -688,13 +685,13 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -705,10 +702,10 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -717,9 +714,6 @@
       </c>
       <c r="B13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostne\Documents\Uni\WS 17-18\ASP\bestASP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\GEPASP\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{CD3DF208-A1A5-413D-8D7A-7E44064D6E7D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" xr2:uid="{CD3DF208-A1A5-413D-8D7A-7E44064D6E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>r0</t>
   </si>
@@ -195,6 +195,33 @@
   </si>
   <si>
     <t>old Index</t>
+  </si>
+  <si>
+    <t>imageData</t>
+  </si>
+  <si>
+    <t>scaled Width</t>
+  </si>
+  <si>
+    <t>scaled Height</t>
+  </si>
+  <si>
+    <t>loop X</t>
+  </si>
+  <si>
+    <t>loop Y</t>
+  </si>
+  <si>
+    <t>imageData current</t>
+  </si>
+  <si>
+    <t>FILL</t>
+  </si>
+  <si>
+    <t>parentX</t>
+  </si>
+  <si>
+    <t>parentY</t>
   </si>
 </sst>
 </file>
@@ -560,19 +587,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090BCA7-DA4C-4993-ADE1-700C25FC9332}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.734375" customWidth="1"/>
-    <col min="2" max="2" width="17.62890625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -585,8 +613,11 @@
       <c r="F1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,8 +627,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -607,8 +641,11 @@
       <c r="D4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -618,8 +655,11 @@
       <c r="D5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -629,8 +669,11 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -640,8 +683,11 @@
       <c r="D7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -651,8 +697,11 @@
       <c r="D8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -662,8 +711,11 @@
       <c r="D9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -676,8 +728,11 @@
       <c r="E10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -693,8 +748,11 @@
       <c r="F11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -708,7 +766,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -716,7 +774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -724,7 +782,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -732,7 +790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -740,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -748,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -756,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -764,7 +822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -772,7 +830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -780,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -788,7 +846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -796,7 +854,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -804,7 +862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>r0</t>
   </si>
@@ -221,7 +221,13 @@
     <t>parentX</t>
   </si>
   <si>
-    <t>parentY</t>
+    <t>mapped Pixel</t>
+  </si>
+  <si>
+    <t>parentY &amp; mapped Parent</t>
+  </si>
+  <si>
+    <t>colorValue</t>
   </si>
 </sst>
 </file>
@@ -590,14 +596,14 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -749,7 +755,7 @@
         <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,6 +771,9 @@
       <c r="F12" t="s">
         <v>52</v>
       </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -772,6 +781,9 @@
       </c>
       <c r="B13" t="s">
         <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>r0</t>
   </si>
@@ -122,15 +122,6 @@
     <t>imagepixelIndex</t>
   </si>
   <si>
-    <t>rValue</t>
-  </si>
-  <si>
-    <t>bValue</t>
-  </si>
-  <si>
-    <t>gValue</t>
-  </si>
-  <si>
     <t>calc Index 1</t>
   </si>
   <si>
@@ -228,16 +219,52 @@
   </si>
   <si>
     <t>colorValue</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>last pointer new array</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>d9</t>
+  </si>
+  <si>
+    <t>d10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,10 +302,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -593,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090BCA7-DA4C-4993-ADE1-700C25FC9332}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,19 +637,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -642,13 +671,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -659,24 +688,21 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,27 +710,24 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,10 +738,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,13 +752,13 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -746,16 +769,16 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -766,13 +789,13 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -780,10 +803,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -791,7 +814,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -799,7 +822,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,7 +886,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,7 +894,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -879,8 +902,81 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>r0</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>d10</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebenrechnungen </t>
   </si>
 </sst>
 </file>
@@ -625,7 +631,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,6 +729,9 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
       <c r="D8" t="s">
         <v>41</v>
       </c>
@@ -822,7 +831,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>r0</t>
   </si>
@@ -255,6 +255,48 @@
   </si>
   <si>
     <t xml:space="preserve">Nebenrechnungen </t>
+  </si>
+  <si>
+    <t>Zwischenspeichern</t>
+  </si>
+  <si>
+    <t>q0</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>pixelX</t>
+  </si>
+  <si>
+    <t>pixelY</t>
+  </si>
+  <si>
+    <t>windowWidth</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>q7</t>
+  </si>
+  <si>
+    <t>immediates</t>
+  </si>
+  <si>
+    <t>size of new image (in bytes)</t>
   </si>
 </sst>
 </file>
@@ -276,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -308,12 +356,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -630,14 +679,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090BCA7-DA4C-4993-ADE1-700C25FC9332}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
     <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -825,6 +875,9 @@
       <c r="B14" t="s">
         <v>36</v>
       </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -834,15 +887,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -850,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -858,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -866,7 +922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -874,7 +930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -882,7 +938,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -890,7 +946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -898,7 +954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -906,7 +962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -914,20 +970,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
@@ -935,7 +991,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
@@ -943,7 +999,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -951,43 +1007,75 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>r0</t>
   </si>
@@ -149,12 +149,6 @@
     <t>newImage</t>
   </si>
   <si>
-    <t>pixelLoopX</t>
-  </si>
-  <si>
-    <t>pixelLoopY</t>
-  </si>
-  <si>
     <t>windHeight</t>
   </si>
   <si>
@@ -182,12 +176,6 @@
     <t>color Value</t>
   </si>
   <si>
-    <t>new Index</t>
-  </si>
-  <si>
-    <t>old Index</t>
-  </si>
-  <si>
     <t>imageData</t>
   </si>
   <si>
@@ -297,6 +285,33 @@
   </si>
   <si>
     <t>size of new image (in bytes)</t>
+  </si>
+  <si>
+    <t>Approach 2</t>
+  </si>
+  <si>
+    <t>index new</t>
+  </si>
+  <si>
+    <t>index old</t>
+  </si>
+  <si>
+    <t>increment new</t>
+  </si>
+  <si>
+    <t>increment old</t>
+  </si>
+  <si>
+    <t>address new</t>
+  </si>
+  <si>
+    <t>increment for r6</t>
+  </si>
+  <si>
+    <t>loop counter</t>
+  </si>
+  <si>
+    <t>address old</t>
   </si>
 </sst>
 </file>
@@ -679,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090BCA7-DA4C-4993-ADE1-700C25FC9332}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,13 +714,13 @@
         <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -719,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,7 +748,7 @@
         <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -744,10 +759,10 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -755,10 +770,10 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -766,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>39</v>
@@ -780,13 +795,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,10 +812,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -811,13 +826,13 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -828,16 +843,16 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,13 +863,13 @@
         <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -862,10 +877,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -876,7 +891,7 @@
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,7 +899,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,106 +987,121 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
         <v>80</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
   </sheetData>

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\GEPASP\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostne\Documents\Uni\WS 17-18\ASP\bestASP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" xr2:uid="{CD3DF208-A1A5-413D-8D7A-7E44064D6E7D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{CD3DF208-A1A5-413D-8D7A-7E44064D6E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>r0</t>
   </si>
@@ -312,6 +312,21 @@
   </si>
   <si>
     <t>address old</t>
+  </si>
+  <si>
+    <t>fillLoopX</t>
+  </si>
+  <si>
+    <t>fillLoopY</t>
+  </si>
+  <si>
+    <t>ZoomFactor</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>mapped Parent</t>
   </si>
 </sst>
 </file>
@@ -694,19 +709,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090BCA7-DA4C-4993-ADE1-700C25FC9332}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.68359375" customWidth="1"/>
+    <col min="2" max="2" width="17.578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.3125" customWidth="1"/>
+    <col min="7" max="7" width="25.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -723,7 +739,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,7 +753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -751,7 +767,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -765,7 +781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -776,7 +792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -790,7 +806,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -804,7 +820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -818,7 +834,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -835,7 +851,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -855,7 +871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -872,7 +888,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -883,7 +899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -894,7 +910,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -902,7 +918,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -913,7 +929,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -921,7 +937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -929,7 +945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -937,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -945,7 +961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -953,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -961,7 +977,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -969,7 +985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -977,7 +993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -985,20 +1001,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -1014,7 +1030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -1022,18 +1038,18 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4"/>
       <c r="E36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5" t="s">
         <v>75</v>
       </c>
@@ -1043,8 +1059,11 @@
       <c r="E38" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
         <v>76</v>
       </c>
@@ -1054,8 +1073,11 @@
       <c r="E39" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
@@ -1065,8 +1087,11 @@
       <c r="E40" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5" t="s">
         <v>78</v>
       </c>
@@ -1076,32 +1101,50 @@
       <c r="E41" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D42" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4"/>
     </row>
   </sheetData>

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostne\Documents\Uni\WS 17-18\ASP\bestASP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" xr2:uid="{CD3DF208-A1A5-413D-8D7A-7E44064D6E7D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805" xr2:uid="{CD3DF208-A1A5-413D-8D7A-7E44064D6E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>r0</t>
   </si>
@@ -47,12 +47,6 @@
     <t>imagedata</t>
   </si>
   <si>
-    <t>xPos</t>
-  </si>
-  <si>
-    <t>yPos</t>
-  </si>
-  <si>
     <t>Width</t>
   </si>
   <si>
@@ -116,27 +110,12 @@
     <t>s9</t>
   </si>
   <si>
-    <t>og Width</t>
-  </si>
-  <si>
     <t>imagepixelIndex</t>
   </si>
   <si>
-    <t>calc Index 1</t>
-  </si>
-  <si>
-    <t>calc Index 2</t>
-  </si>
-  <si>
-    <t>immediate Value</t>
-  </si>
-  <si>
     <t>nextFree</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>WINDOW</t>
   </si>
   <si>
@@ -327,6 +306,78 @@
   </si>
   <si>
     <t>mapped Parent</t>
+  </si>
+  <si>
+    <t>FILL SIMD</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>loop y</t>
+  </si>
+  <si>
+    <t>loop x</t>
+  </si>
+  <si>
+    <t>width new</t>
+  </si>
+  <si>
+    <t>height new</t>
+  </si>
+  <si>
+    <t>q8</t>
+  </si>
+  <si>
+    <t>q9</t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>q11</t>
+  </si>
+  <si>
+    <t>q12</t>
+  </si>
+  <si>
+    <t>q13</t>
+  </si>
+  <si>
+    <t>q14</t>
+  </si>
+  <si>
+    <t>q15</t>
+  </si>
+  <si>
+    <t>Nebenrechnungen</t>
+  </si>
+  <si>
+    <t>posX</t>
+  </si>
+  <si>
+    <t>posY</t>
+  </si>
+  <si>
+    <t>parentY</t>
+  </si>
+  <si>
+    <t>out of bounds</t>
+  </si>
+  <si>
+    <t>indexParent</t>
+  </si>
+  <si>
+    <t>indexCurrent</t>
+  </si>
+  <si>
+    <t>imagedata (first index in new image; posX and posY already used)</t>
+  </si>
+  <si>
+    <t>ogWidth</t>
   </si>
 </sst>
 </file>
@@ -707,445 +758,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6090BCA7-DA4C-4993-ADE1-700C25FC9332}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.68359375" customWidth="1"/>
-    <col min="2" max="2" width="17.578125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="15.3125" customWidth="1"/>
-    <col min="7" max="7" width="25.83984375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="E36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5" t="s">
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="5" t="s">
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="5" t="s">
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H46" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="4"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H52" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/SpeicherBelegungen.xlsx
+++ b/SpeicherBelegungen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\GEPASP\bestASP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -761,7 +762,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
